--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/62_Niğde_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/62_Niğde_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57F88D98-60BB-4CF0-88CF-E7E668BB89C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECBA1F84-7AB2-4B35-9ACB-FACA54D409F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{86C9A567-AF04-43F1-A741-DBC37353688A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{910E4BE6-E710-4699-BE58-25DA593A88A2}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{61EA4AB7-D20D-470D-9376-A0EA3B5BDCEC}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{E7F00F98-67CC-453D-88F2-0A6D9C81418B}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{9B1E4A32-26D1-4B3B-9C80-CF0C60805A3D}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{9627E8C9-80C1-47A0-9263-BDCFEA253855}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{0033B457-4275-435A-9A64-61CE070E9E2A}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{82AE6612-F7B7-4A39-91D6-C5C6E350B3D7}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{EBD65C7A-1EDD-48D2-A231-7A481E60095B}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{37ACF568-4DB4-468B-B7DD-9EDCE16F8F0F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17A66B9-9BA0-4CC8-B2DD-880BB65ED1EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB70F661-2DAC-4FB7-86E1-4D5A9A887891}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2441,18 +2441,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3016F94F-492A-4CC1-AB35-92B4BFDF49A4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3613F06F-593F-4135-9EF1-C64FEE50740E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B3C3E8BB-AF1A-4826-8AAD-A95C8846C071}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1FCC8394-9AC3-4853-8FBD-106E99245241}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0757BFD7-7205-4D56-9D86-565F14B10219}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7A3082A1-C24F-474D-A6C8-0568C1E12515}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A44259DE-3E76-4EA2-8E1F-DEDB9D443C47}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DA8CCEDA-5ED1-4418-914D-05E01CA1E486}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C58F9559-B712-4B9E-9701-9A0E75AC27C0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3C5E905D-D3BD-4532-869E-97FCB84CD11C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2E040911-7993-420E-A2F7-83E16296C277}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{24B929B3-D464-4137-9B8F-C41700DB535B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{FC0C2ACD-C282-4611-898B-EE70BA1FA15D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B39D1B28-228C-4C16-87B9-CB72FF57FA15}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3865C7BA-976A-4DEE-9701-267AAE1471ED}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B6E76DED-4336-43ED-9AD8-A45195540697}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6A37EEB8-DDB2-4F60-A85A-6ECD7835535E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8F8F6DF7-D846-42F7-815C-AD6F7F1E80F7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DA483F7E-1800-4504-917A-F4E89A7E84B4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{78BECBBB-548D-49BC-A28A-4B15A42403A5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{37AD0E39-5994-448F-9BE5-327BA158806E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5D91F685-B33A-4F64-BD92-7727EA57745C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A6F09333-D448-43DD-B138-2B2A7B410B47}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C5518170-C571-4A57-81EB-94EA1D0CCBB6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2465,7 +2465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423B1FC6-EB4D-4DDE-B111-057E2685D600}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C3AA86-4753-4B45-B903-3A66A4DC88FD}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3622,18 +3622,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9E35F131-9FB2-43E1-BCBC-3673B152887F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{329E88B4-1789-4395-91FC-3D13329E6896}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C8B723CD-F342-4AF3-AFFB-CD492AC9197C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{69095A39-A94D-4DD4-83CD-2CD0A308F7FF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3316805F-9BB4-430B-8CD6-8839B26DC0D9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DDE0B9DF-60F8-4FD8-96CD-15037DCD10D4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{FE1DD17F-6279-46B5-96C1-29146A65E62B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2E3C77F8-9350-46AD-A7BA-E1BC6F5411DC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{FD4786C5-919A-4C31-B561-C38E88C4AA37}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A4920DD9-969C-43BE-A999-7294FDD6FE5F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{81EDCA30-A9DB-4EED-AADE-153CF6747F0E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5DB8F999-A8AB-497E-A789-2547F5B1E9E0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{015600F8-1DBD-4157-A148-878540505AE2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1B7C7A0F-5793-48F0-BA7D-97CC79076C93}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{447303F8-6358-4127-BF6B-6A04EBB13AF3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E32B8BCA-3609-4794-9268-119C1E3F4D80}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C781CD62-391C-433D-8D9C-E6D3A316B18A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{58DBF73B-493B-40FA-B16B-4E2B0670492D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{34C9F3FB-CD4B-4FA8-A33D-05DE3ED02C84}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9115F92C-02DE-4836-9A30-F4A9D577C0A2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D9431A42-FC10-4D79-A48B-C42731109AA5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{ECDB0506-B09D-41A4-B1F9-D811C8391E64}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5FA32919-D5C6-43C9-9863-F5F68259DC3D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9390C0CB-7C56-4B40-B8C5-691D1B329D4C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3646,7 +3646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E712208-6EC4-4370-96F8-99F1385F508D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096728D7-C28B-419F-91A3-66E0FAE5CC95}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4803,18 +4803,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2AD5B6C4-D6C2-4FF4-BB3F-BD1CBE4D4BB0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CE704219-AB0F-46E8-8196-39EAE1511366}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{980516C1-BCF9-4402-9032-A0392AFD9CB7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E76CCB74-971C-463F-99D9-94CD120BEA0E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6F6CE9DD-94C9-4FD9-A66B-F821E097A929}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2820B4BF-1B31-4AD0-AFB7-5308A33838D5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{37E981BF-FCAF-456D-84F5-F739AE9B8402}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AF46D6DE-07CF-43D0-9ED0-23C6100904EB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B6C9BF5A-B8FD-4601-A0FF-74F3A660C49E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2206B099-4ACC-4281-9467-F69C8EC875E3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7CA8C64F-694C-4D5A-9974-43E017063573}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6F119A4F-ADD4-4AAB-973C-E2A3A2CEA347}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AA05B36D-599D-4D04-9775-19307C0AF79A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B9AF5293-CD25-4575-B229-F847D41D460B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5F708970-9FB8-45FF-8B55-F9360603B569}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BFE244B7-ED32-4298-86AD-6B9885247F2A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{97D4DA39-AD95-4944-BE85-056BD4CC2D49}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4415291C-748B-47A7-95F7-465B7050E830}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4A802D3C-0D63-46D3-A63D-CD01A67BC00F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{92BF0221-0671-45F9-83B2-76A3B638DD00}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2BA499D9-E612-47DC-BFE9-332115845460}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A42A16A5-4F46-42E5-A2AA-8F407FA4FF54}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E085E2C2-2663-499C-9FC5-D4C108D70D11}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{849D9AF1-C729-4C3F-9D5B-8DC18E06B1FC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4827,7 +4827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D22CA1D-7313-42B0-BC79-ADB3AD376010}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20559E3D-245B-446C-900D-8ED9FFC40714}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5978,18 +5978,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8574CEC3-2399-4DDD-BB2A-003839013DEA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F886940F-A620-484C-918E-F5E63A9CEA1B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{15D00BC2-64F1-4CD7-9175-0CC466DFB49B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A17F9286-72BA-4FAB-A846-ECCCAFC8AF9E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{63A3F0FB-9F50-4CEE-9CA2-017F5E6CEDA6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{581F610D-6DD5-41D3-9E5F-5F4F4719DCF8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{26F5AA6C-57BC-451A-9133-5456B54454A5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7CE933A6-93BB-42FE-B4D2-A31C540881CC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F8CC96A4-B448-40B8-B624-245048B2BADE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{13B74D78-BDEC-4AF5-8A97-4AE4F5F2FBD3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0F19902E-4779-4346-863E-A13D610B093B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F21C1A7B-1DE5-439D-9E22-3E57FD319231}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EB9A58DC-254C-4353-A6AA-9A0185D7FC54}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7FA9E344-E3A8-4777-81A8-AC075FF90B55}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C839CFA8-48D9-4694-A349-82244A51F1B1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1869B7A1-A42A-4BC3-87CF-E4C73878721B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4BF2D8F7-AD20-4F2F-B73E-EBA093E18D72}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A87F2A11-D9A1-4FD9-A429-18099A6D44B3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7862C48C-2D4A-47A1-8911-33BADCC5AC28}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CB6471EA-D811-494D-9AFC-1460CB8D7FC5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{833D2B23-1A59-4C9D-9958-B61E9FB64643}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2E091CFD-960B-4E98-8B8A-B3BFCE4BA993}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A3EF301F-A045-4EEB-8687-58DD7669DD39}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D3845EAB-79BF-4C53-984A-83A86EBB3815}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6002,7 +6002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1BE5CF2-BE43-44EF-8962-D95A97081649}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C369421-6F92-4401-8449-EE638C2FCE09}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7207,18 +7207,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{67228E61-6BE2-47E7-A056-DC04F0EE8C34}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F2133A9E-2855-4631-89E2-8EF0DC13F193}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{942316E5-38D4-4B9B-9986-B210A3B5A6C0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{EA579468-47A4-4782-90AC-38D1F009F4B2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1975AB00-527F-42AD-90A5-8CBD8990A355}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{58B3B55E-1D96-4D97-8B1A-690A8E96A8F5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BB90F3BE-DB93-4E7D-9EE7-26308640B609}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BCA7ADCC-BB57-45F9-83F3-C9B8B06B9CAB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D2CFBF4C-68A0-458A-B78A-9905CBAF0183}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{50AA4F48-46CD-47A3-9FCF-A1394060AFAD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5A6EE155-1BDB-48B9-B763-16A1976895D8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D2108515-5917-4D2C-9DAE-54AACF915305}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{26938397-6930-4765-969A-8D600B5F657E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AF5578D4-38F5-414E-8E7C-286155115F2C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{59662F58-E24C-4F96-AEE2-0CA35922B128}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{84D36B71-CE3A-4B9A-9432-62AC2978E3B1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CBF56968-6A7A-4E22-9217-E656064024BD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4E44E623-9065-4CBC-8013-F8B790C90BB3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{42DCB60D-1257-45C7-BA4A-34BD038EFD22}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B08860C3-8D64-4447-8600-5C396CE48B21}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{964BE0D3-C8C8-4295-8999-271637A3BCD5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4603C0C2-E472-416A-853B-A6F2DB539B18}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E3B1B9BA-B68A-4CB9-AC33-420215397D9C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{55A7B4A0-1397-49DC-9B5C-E9A9B9F01B81}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7231,7 +7231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3046EF23-5E48-43D7-8C5A-610A95A9F46E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D378DFDA-A7C3-4080-85A5-9D756CD90714}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8432,18 +8432,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C88D0CDF-1ECF-40F1-AE54-3F65555C1071}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CF867304-3E86-461E-9522-C00718EE51DC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C0D6A157-A826-4878-AC5F-10D6234C90CD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{363474DA-3649-4E01-873B-24807C3FE6B1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8FA59709-C769-46E9-86BF-2C96A6CB6142}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B0ED18A2-965D-4FAE-A6DC-7E41EE1109FA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1B0DCEB2-3D20-4675-B9E2-29903970AD79}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{18064057-4917-4864-A5ED-0E23671FD94F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2D79124F-636A-4006-84A5-85096D588757}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D12231B8-C1AE-484F-87E5-40E9C8EEE120}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0E2D6D34-27F3-4BB1-AD4A-439ED306ECB4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{75F2C70B-532C-41BC-AC70-FF83616BDC88}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3E184AB2-75B7-46C1-B37A-EC3F97A96E4D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F62B8004-FE89-43BE-B08B-51D40847A9BC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3046EB38-D7F9-470D-8805-FE4B8AC4B0B8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F15D1453-AC62-4A3F-96CF-6220991B72F1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6293C771-5579-47A4-AB01-715BA24F75EA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C922298A-24E0-4018-96EC-3CEB03C0734E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B928E0D1-80E6-475C-BBBE-40AAF9FA8848}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4FBDE5F0-E7D7-46A0-ABC0-5B633861350E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C31F0C5F-BA84-44CC-936D-BC39C23FFCE4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{93258861-CC88-491B-8797-FDB5C14FD891}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{393683B1-E725-45AF-A314-78D8E29AEF63}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0F610CD1-88B6-41A6-A1BC-57016D087B90}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8456,7 +8456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB5BDD4-30EF-491E-8680-94C99AC045C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC65555-EE0F-4627-A0C8-C86CF26E6BA7}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9655,18 +9655,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D94DAE03-EC28-412D-8AB4-3FDBC5D9A38A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{702BA9B5-FBDD-42C2-A6C1-705E5FBFD6C0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1CDF33FC-5085-40EA-9721-F042E4A2632D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{92A80AB0-1125-4BE1-8BF2-0149609F5C82}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6813B2A9-5CE6-4853-BE37-9E7BF01A20B6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{09D3892E-4A51-4629-8507-CD195E5121BA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{EAD04679-0C55-4DF3-B72E-C7386DF3D707}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D1A2BABB-0751-4CE7-B227-DCE21E101680}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{91870F36-10E2-487A-A947-6D91A5E6AB7C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E3B8B9FB-0594-40DA-B1A2-ADE19CC9B3C7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BB227B58-BDB6-4C5A-8D35-50F1965757A3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A7BC9120-7B37-4E24-8083-7A4A5691A994}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1BFDE300-FCF3-427C-8C5B-FDDADE09FB04}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{21936183-0790-418D-8E01-7710A58B8ED2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C20B0D6A-90F5-4884-8673-2E611574B7C9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B8F24F3B-0B97-4138-841D-5C0A54DF0122}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{88BD8BAD-B08D-4E29-99E0-EE26F4238D27}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{55A963E3-4768-4C36-8C99-D439A03C24B4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CE0E6F37-DEA5-4797-BFDE-E045DD467EF5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2F3D19D7-D113-44BB-A903-DE7DE83CFBA8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{560A3D6D-CB3E-4154-8931-5ACFE7849CA2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{04DE8540-9091-494C-9E4B-80A597C7791A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{231D67AA-66B0-4AC0-9C99-D1318AD41D49}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{28C3C594-5978-4A8C-8AB4-68AB93FE3666}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9679,7 +9679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E942B391-4E12-4631-BFA3-7DF79D22CC0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E772E2-90C6-4703-9AC8-735C7C2D5101}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10870,18 +10870,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{59B48E36-A97E-46B5-BC17-800AA580D91E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{48419593-0A12-4830-8601-440CB7998BAD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FF3388B8-614A-4997-B445-015AA168707F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E18DA307-A02E-4AC7-A4D4-7E051D9F348D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AA2F54EC-524D-472C-A483-2FE92EB86565}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5DB4C6BC-41A0-4719-878F-CE4EF5C95484}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{21610060-223D-4505-9B7B-9F8FC5799DDF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6AF23B96-6BB7-4307-B7A3-FBD7531C0022}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8BF2CF20-4730-4DF3-8F9B-72460751AED4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{66016577-2BD3-4F03-A121-2EA99D2E302F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A7A561CF-BAC3-488B-86EE-F4F1A2A27E33}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{494B5A22-07CA-472B-8FDD-CB50566FDCB2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B1757EFF-0382-41C2-9457-BAA28B77AB27}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8C6879B6-E2DF-44CF-A5D3-72D2029D9FA9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{940B29A5-B42C-44AB-A0C8-D94158899279}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{AFD26E6D-70AA-4FC7-9CCB-CB22C14F412A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9E656BB6-7235-4AA6-8EEC-58E148A1B848}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2C62442D-9E15-43B2-94CA-B9A30BEB94A5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1B1A35FA-3D78-438E-A0E8-334123337617}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D4CD03AF-CDB0-4E4A-A673-63B52F20527F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AEEA7CAF-ADC2-40D1-843C-EF57A3DB558F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C246D603-E2AD-44B4-95CD-7CB098DDAB6E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8316340C-0B78-4222-8063-CC17040D4074}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C875482F-7710-4BAF-84D1-2D645C831779}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10894,7 +10894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1278C60D-5B1E-4CE1-AF38-597A134F1B0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174FC084-693B-406E-94B0-1B14CC8B71F2}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12085,18 +12085,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5374C0E8-C877-43F5-B3FD-7D56BD202C0D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{27E9C186-1C59-4014-86F8-20F2FC1F55DD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5E957A17-7E12-4C67-87E2-7F8561927D5D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{875DCBB0-7A77-4DF6-BD58-176D1BEA0070}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C5F13C27-A614-4699-A79F-B6749735FB46}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8AC8A66E-B19D-405A-AB9D-75A549FD05A3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{96D6D2A5-E3D1-41FA-9D99-98246C5FD2F2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{606D6A7D-4868-4F8F-BBAE-4742FD6A5B96}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{03274A24-7B8B-45C8-8029-11764ED7ADE4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9255EC6A-F35E-47F5-93E5-E6F75CE6FE0B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9D66BF45-7FC9-47FB-9D2A-6026020B89E1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9EEC3D5F-11A5-4FCC-B24C-EA0920135BD2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{90CF1707-AC70-4278-88C3-2D6201D8719A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6A341615-FE09-4389-9C67-A8DC184B80E3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{03076389-FF66-4F5C-996A-0BF8D87C27C5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{73F03C78-2AB3-42A2-8EA5-531376D2C7FF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BD5876C4-1F0D-409D-8B97-256BE224F4D2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7F9B42A3-2CBF-4B1C-A080-F6A9EF9B7C32}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A1EDE277-009C-45FB-BE54-3AF341BA9B58}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FC7DABC0-4741-4C2A-A421-3D79BC7CF005}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{EDCDC7FF-64B6-4C3E-B52F-2D2020085A3E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1E1A5527-473A-4B69-AA13-B7FA80A85E68}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CBA57AFD-C47C-4318-8047-7F419ECF845B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D8DB4520-3091-41F6-AA94-E4CEBFDF42AF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12109,7 +12109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEEC982-CDFE-42AC-A356-7B937FDE46EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C5639A-4B94-456C-B3C1-0C4EACAF641B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13292,18 +13292,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7C860FCE-F58D-45EB-A2AA-F9C3507C0E20}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2869BC37-2FAC-400C-A418-124004D2569A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FC6C975D-1A88-4F43-B0D9-7AD10D78B41A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{78C62BE6-2C32-4CC5-8370-6E1C6C7254B9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3625977D-B27F-4C46-B342-BB4A092232A9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B3C9CDAB-DAA2-41FC-B5A5-7E2583D6C0DE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D5C9DCE8-2E90-4E18-99A1-4DC4A3924E2C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EA16D4D8-F435-4477-801D-BC663C6B4FA7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B27A7FAA-4D7B-4664-A389-803A9460B0FB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5B8C7888-3D7A-4280-AAB7-D36416DD6943}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{41716727-8AAD-4471-86E4-7BC146E7886E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EA46483C-EB29-47FF-AA26-7861B2910F84}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7BB59F8B-4FBB-47CF-AA62-92F49CB25E6F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7A2854E9-77BA-47FF-A2EC-C4B632B95776}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{52CA34B6-9F86-4179-AB49-CDF02A38A157}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C67B66F6-D364-4EA6-87FC-A0F9EFE87289}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{055CD5ED-1A59-4072-8578-5574D74FF834}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B71A12F7-0F8D-432C-A497-B5BAE9709024}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{066F2217-4AC8-42BF-9A2C-9DF10EE8CACB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CF5303FE-9549-441E-94F4-14882839DB5D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3FF57576-90C7-4466-8B9B-D20E3A691618}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{06841B9E-3ACB-4382-8FAC-5A431D053E78}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A8FD5655-B36A-4A1F-9797-4F0D5644B67D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{93CCD18A-16B6-4982-9B94-0C7F026F8748}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13316,7 +13316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48555881-32B4-432C-87B8-6BE6F1404720}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A3F5AB-5CB5-465A-9EBE-5CF4099B239E}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14495,18 +14495,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8CE7094B-DB33-4785-84F5-C4C5F99756C4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{65B4189D-1C5A-446F-95DD-4AC44E836C16}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{78CADF66-03A5-49AA-A4F2-BB43E663AEC5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0FAA0BEF-9B33-4397-BA60-1FCC587AB62D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EBF3B504-A06D-40AB-9DA2-DF1B451D36CE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6FE6F566-2A6A-4079-AB18-01CDC2E2F754}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{934ED9DA-0843-499E-86DD-9AA6F0501176}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A79A05DD-F441-4EBB-8EDC-A11F042B6136}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{EBD6AE59-7794-4B0B-B21D-175D72550F75}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4F7DD3FF-D783-40C3-B506-8606A9CCC2DF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6C23CA78-675A-4726-81DB-ADC936B09AAF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{47556D39-36D1-472D-845C-A6AFD817247C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AEE1148F-2FEF-4075-9C6E-2216AA671D83}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F36BBD75-555D-430D-A0AE-E2B42B5B6CF7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{AB61F69D-00B4-44DC-AEE5-004426667A55}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A4CE2A39-7B2E-4B45-B2C4-A12185711550}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C860302D-A54D-44F3-AAE1-CA0A122114FA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1A723843-1A9F-47E7-BA3C-F94E4628E521}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CC3F05EC-BBD7-47C6-BDEC-E0437E70C330}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4FEFFDF8-B8BB-48CB-A5FA-6643B7A249E7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E05C998B-7275-4F70-9666-85B807C34B06}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0A719F82-0AF6-4E5A-9ED9-811B1F494AE6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BD1E0AE0-4B7C-4E54-B1D0-499963853750}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{207B52EF-1519-43C7-A875-88643E90B57E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14519,7 +14519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF467B7-BB49-429F-BBC9-DD7AB0A39DDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B4974B-9040-46F3-875A-699E2B8B62F6}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15690,18 +15690,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6DA9FEF3-B880-4D0A-A412-0B1A35A46E82}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{15E7A9A9-1D19-419C-9C69-367476EA1EE4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1382AA2C-C901-44FD-80C9-FC0FF631B9AE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5D47C61B-E13D-4ABB-B617-FC5B47A1CC8A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D9982DFC-1084-4B87-9C58-6397B52484D2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{11F74850-8D6A-4E38-9D08-8A3080455083}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2A1312B3-E0F1-49BF-80CB-9AF940B8C0BA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{73A8D913-6431-4FA0-A226-91E46876DD84}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{608EDD6A-2231-479A-A318-B59F38EEE295}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{21EA7962-4527-4A04-82F4-17E5D219F54B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2280D89E-19CA-4E1F-BD18-396F36668F86}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F1B2A991-A66A-4E91-92FD-870D9070A53E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9FA3636E-E583-4751-96BB-505BC1D60781}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{90ADC039-DEBF-4A52-8F7B-081A6997F206}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DA5FD2BC-9E52-4142-8F96-9FC7710EC009}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{ACEDF4FD-E0DD-4FE9-8753-DE249133F4DC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DB7D14D1-29B7-4D8E-AF25-5C87985837E6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D707B66F-BFD2-4EF4-A86F-6E8D0F7B32C7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9B97F893-9F91-4922-A203-EE1B6EED4DA3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1AC363E8-1A70-4747-8FF2-2ECC4C85EE8A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{89922305-4371-4617-84B8-79B341F3D282}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{18E0DF90-ED5B-4426-9ABB-3C854558E0EB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{ECABCCB7-8708-4527-B141-A6A43FE9A394}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{69E6B5CE-7BC7-4383-8943-D84FA2740673}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
